--- a/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
@@ -535,6 +535,9 @@
       <c r="A11" t="str">
         <v>7</v>
       </c>
+      <c r="C11" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
@@ -538,6 +538,9 @@
       <c r="C11" t="str">
         <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F11" t="str">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -599,7 +602,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01751253016560803651500</v>
+        <v>017512530165608036515030</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -542,9 +542,89 @@
         <v>30</v>
       </c>
     </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F12" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F13" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F14" t="str">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F15" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>9_茶色洋桔梗_Tea Color Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F16" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>13_酒红洋桔梗_Burgundy Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F17" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>9</v>
+      </c>
+      <c r="C18" t="str">
+        <v>7_翠绿洋桔梗_Dark Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F18" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>5_绿洋桔梗_Light Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F19" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F20" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>13_酒红洋桔梗_Burgundy Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -602,7 +682,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>017512530165608036515030</v>
+        <v>017512530165608036515030302555141051010200</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
@@ -621,6 +621,9 @@
       <c r="C21" t="str">
         <v>13_酒红洋桔梗_Burgundy Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F21" t="str">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -682,7 +685,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>017512530165608036515030302555141051010200</v>
+        <v>0175125301656080365150303025551410510102025</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -625,9 +625,98 @@
         <v>25</v>
       </c>
     </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F22" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>10</v>
+      </c>
+      <c r="C23" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F23" t="str">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F24" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>11</v>
+      </c>
+      <c r="C25" t="str">
+        <v>157_流沙_Quicksand_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F25" t="str">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F26" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F27" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>12</v>
+      </c>
+      <c r="C28" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F28" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F29" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>13</v>
+      </c>
+      <c r="C30" t="str">
+        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F30" t="str">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>225_果汁阳台_Juicy Terrazza_Rosa rugosa Thunb._10stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -685,7 +774,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0175125301656080365150303025551410510102025</v>
+        <v>01751253016560803651503030255514105101020252057303510134010510</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
@@ -713,6 +713,9 @@
       <c r="C31" t="str">
         <v>225_果汁阳台_Juicy Terrazza_Rosa rugosa Thunb._10stems</v>
       </c>
+      <c r="F31" t="str">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -774,7 +777,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01751253016560803651503030255514105101020252057303510134010510</v>
+        <v>017512530165608036515030302555141051010202520573035101340105113</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -717,9 +717,101 @@
         <v>13</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>14</v>
+      </c>
+      <c r="C32" t="str">
+        <v>225_果汁阳台_Juicy Terrazza_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F32" t="str">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>274_仙子之吻_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F33" t="str">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>15</v>
+      </c>
+      <c r="C34" t="str">
+        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F34" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F35" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>268_猩红泡泡_spray red_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F36" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>16</v>
+      </c>
+      <c r="C37" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F37" t="str">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>17</v>
+      </c>
+      <c r="C38" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F38" t="str">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>18</v>
+      </c>
+      <c r="C39" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F39" t="str">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F40" t="str">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>109_绣球国产绿_Hydrangea Colombia Green (local)_Hydrangea L._1stem</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -777,7 +869,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>017512530165608036515030302555141051010202520573035101340105113</v>
+        <v>01751253016560803651503030255514105101020252057303510134010511317529251018018081700</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
@@ -808,6 +808,9 @@
       <c r="C41" t="str">
         <v>109_绣球国产绿_Hydrangea Colombia Green (local)_Hydrangea L._1stem</v>
       </c>
+      <c r="F41" t="str">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -869,7 +872,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01751253016560803651503030255514105101020252057303510134010511317529251018018081700</v>
+        <v>017512530165608036515030302555141051010202520573035101340105113175292510180180817020</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -812,9 +812,99 @@
         <v>20</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>19</v>
+      </c>
+      <c r="C42" t="str">
+        <v>118_绣球老绿_Hydrangea Garden Lace_Hydrangea L._1stem</v>
+      </c>
+      <c r="F42" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" xml:space="preserve">
+      <c r="A43" t="str">
+        <v>20</v>
+      </c>
+      <c r="C43" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F43" t="str">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" xml:space="preserve">
+      <c r="C44" t="str" xml:space="preserve">
+        <v xml:space="preserve">509_翠珠粉_Didiscus caeruleus
+pink_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>234_白泡泡_White Bubbles_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F45" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>229_黄蝴蝶_Yellow Butterfly_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F46" t="str">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" xml:space="preserve">
+      <c r="A47" t="str">
+        <v>21</v>
+      </c>
+      <c r="C47" t="str" xml:space="preserve">
+        <v xml:space="preserve">509_翠珠粉_Didiscus caeruleus
+pink_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F47" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" xml:space="preserve">
+      <c r="C48" t="str" xml:space="preserve">
+        <v xml:space="preserve">416_翠珠紫_Didiscus caeruleus
+blue_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F48" t="str">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>276_情迷罗拉_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F49" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F50" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -872,7 +962,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>017512530165608036515030302555141051010202520573035101340105113175292510180180817020</v>
+        <v>0175125301656080365150303025551410510102025205730351013401051131752925101801808170203050251227155030100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
@@ -899,7 +899,7 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
@@ -901,6 +901,9 @@
       <c r="A51" t="str">
         <v>22</v>
       </c>
+      <c r="C51" t="str">
+        <v>138_卡罗拉_Carola_Rosa rugosa Thunb._20stems</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -904,10 +904,93 @@
       <c r="C51" t="str">
         <v>138_卡罗拉_Carola_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F51" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>223_巧克力泡泡_Chocolate Bubbles_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F52" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>246_多头蓝莓_Blueberry Spray_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F53" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>301_彩星 红_Tinted Gypso Red_ gypsophila_0.5kg</v>
+      </c>
+      <c r="F54" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>309_彩星 浅紫_Tinted Gypso light purple_undefined_0.5kg</v>
+      </c>
+      <c r="F55" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>23</v>
+      </c>
+      <c r="C56" t="str">
+        <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
+      </c>
+      <c r="F56" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+      <c r="F57" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>496_大飞燕深蓝色_delphinium dark blue_undefined_1bunch</v>
+      </c>
+      <c r="F58" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>571_大飞燕浅紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F59" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>403_大飞燕浅蓝色_delphinium light blue_undefined_1bunch</v>
+      </c>
+      <c r="F60" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>495_大飞燕深粉色_delphinium pink_undefined_1bunch</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -965,7 +1048,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0175125301656080365150303025551410510102025205730351013401051131752925101801808170203050251227155030100</v>
+        <v>0175125301656080365150303025551410510102025205730351013401051131752925101801808170203050251227155030102062051030201020200</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
@@ -987,6 +987,9 @@
       <c r="C61" t="str">
         <v>495_大飞燕深粉色_delphinium pink_undefined_1bunch</v>
       </c>
+      <c r="F61" t="str">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1048,7 +1051,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0175125301656080365150303025551410510102025205730351013401051131752925101801808170203050251227155030102062051030201020200</v>
+        <v>01751253016560803651503030255514105101020252057303510134010511317529251018018081702030502512271550301020620510302010202020</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -991,9 +991,89 @@
         <v>20</v>
       </c>
     </row>
+    <row r="62">
+      <c r="C62" t="str">
+        <v>402_大飞燕深紫色_delphinium purple_undefined_1bunch</v>
+      </c>
+      <c r="F62" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="str">
+        <v>118_绣球老绿_Hydrangea Garden Lace_Hydrangea L._1stem</v>
+      </c>
+      <c r="F63" t="str">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F64" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="str">
+        <v>104_绣球重瓣紫_Hydrangea Purple D_Hydrangea L._1stem</v>
+      </c>
+      <c r="F65" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>24</v>
+      </c>
+      <c r="C66" t="str">
+        <v>268_猩红泡泡_spray red_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F66" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="str">
+        <v>225_果汁阳台_Juicy Terrazza_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F67" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="str">
+        <v>223_巧克力泡泡_Chocolate Bubbles_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F68" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="str">
+        <v>247_苏芬_Sofine_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F69" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="str">
+        <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F70" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="str">
+        <v>574_迷你菊白_undefined_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L71"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1051,7 +1131,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01751253016560803651503030255514105101020252057303510134010511317529251018018081702030502512271550301020620510302010202020</v>
+        <v>017512530165608036515030302555141051010202520573035101340105113175292510180180817020305025122715503010206205103020102020201022410102203300</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
@@ -1070,6 +1070,9 @@
       <c r="C71" t="str">
         <v>574_迷你菊白_undefined_undefined_1bunch</v>
       </c>
+      <c r="F71" t="str">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1131,7 +1134,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>017512530165608036515030302555141051010202520573035101340105113175292510180180817020305025122715503010206205103020102020201022410102203300</v>
+        <v>0175125301656080365150303025551410510102025205730351013401051131752925101801808170203050251227155030102062051030201020202010224101022033015</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1074,9 +1074,92 @@
         <v>15</v>
       </c>
     </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>25</v>
+      </c>
+      <c r="C72" t="str">
+        <v>478_绿芯向日葵_sunflower mini_undefined_1bunch</v>
+      </c>
+      <c r="F72" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="str">
+        <v>384_奶油向日葵_sunflower cream_undefined_1bunch</v>
+      </c>
+      <c r="F73" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="str">
+        <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F74" t="str">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="str">
+        <v>255_九星蓝狐_Ocean Song spray_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F75" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="str">
+        <v>301_彩星 红_Tinted Gypso Red_ gypsophila_0.5kg</v>
+      </c>
+      <c r="F76" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" t="str">
+        <v>302_彩星 浅粉_Tinted Gypso light pink_undefined_0.5kg</v>
+      </c>
+      <c r="F77" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>26</v>
+      </c>
+      <c r="C78" t="str">
+        <v>255_九星蓝狐_Ocean Song spray_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F78" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F79" t="str">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" t="str">
+        <v>574_迷你菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F80" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" t="str">
+        <v>574_迷你菊白_undefined_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L71"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L81"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1134,7 +1217,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0175125301656080365150303025551410510102025205730351013401051131752925101801808170203050251227155030102062051030201020202010224101022033015</v>
+        <v>017512530165608036515030302555141051010202520573035101340105113175292510180180817020305025122715503010206205103020102020201022410102203301510103115510113750</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
@@ -1154,7 +1154,7 @@
     </row>
     <row r="81">
       <c r="C81" t="str">
-        <v>574_迷你菊白_undefined_undefined_1bunch</v>
+        <v>576_迷你菊紫_undefined_undefined_1bunch</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
@@ -1156,6 +1156,9 @@
       <c r="C81" t="str">
         <v>576_迷你菊紫_undefined_undefined_1bunch</v>
       </c>
+      <c r="F81" t="str">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1217,7 +1220,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>017512530165608036515030302555141051010202520573035101340105113175292510180180817020305025122715503010206205103020102020201022410102203301510103115510113750</v>
+        <v>017512530165608036515030302555141051010202520573035101340105113175292510180180817020305025122715503010206205103020102020201022410102203301510103115510113752</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
@@ -1157,7 +1157,7 @@
         <v>576_迷你菊紫_undefined_undefined_1bunch</v>
       </c>
       <c r="F81" t="str">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1220,7 +1220,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>017512530165608036515030302555141051010202520573035101340105113175292510180180817020305025122715503010206205103020102020201022410102203301510103115510113752</v>
+        <v>0175125301656080365150303025551410510102025205730351013401051131752925101801808170203050251227155030102062051030201020202010224101022033015101031155101137520</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1160,9 +1160,95 @@
         <v>20</v>
       </c>
     </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>27</v>
+      </c>
+      <c r="C82" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F82" t="str">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="C83" t="str">
+        <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F83" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="C84" t="str">
+        <v>152_白荔枝_White Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F84" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="C85" t="str">
+        <v>575_迷你菊深粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F85" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>28</v>
+      </c>
+      <c r="C86" t="str">
+        <v>152_白荔枝_White Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F86" t="str">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="C87" t="str">
+        <v>175_火灵鸟_Free Spirit_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F87" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="C88" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F88" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="C89" t="str">
+        <v>575_迷你菊深粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F89" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>29</v>
+      </c>
+      <c r="C90" t="str">
+        <v>175_火灵鸟_Free Spirit_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F90" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="C91" t="str">
+        <v>137_凯瑟琳_Catherine_Rosa rugosa Thunb._20stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L81"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L91"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1220,7 +1306,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0175125301656080365150303025551410510102025205730351013401051131752925101801808170203050251227155030102062051030201020202010224101022033015101031155101137520</v>
+        <v>0175125301656080365150303025551410510102025205730351013401051131752925101801808170203050251227155030102062051030201020202010224101022033015101031155101137520211171526205540</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
@@ -1245,6 +1245,9 @@
       <c r="C91" t="str">
         <v>137_凯瑟琳_Catherine_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F91" t="str">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1306,7 +1309,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0175125301656080365150303025551410510102025205730351013401051131752925101801808170203050251227155030102062051030201020202010224101022033015101031155101137520211171526205540</v>
+        <v>0175125301656080365150303025551410510102025205730351013401051131752925101801808170203050251227155030102062051030201020202010224101022033015101031155101137520211171526205543</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
@@ -1246,7 +1246,7 @@
         <v>137_凯瑟琳_Catherine_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F91" t="str">
-        <v>3</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1309,7 +1309,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0175125301656080365150303025551410510102025205730351013401051131752925101801808170203050251227155030102062051030201020202010224101022033015101031155101137520211171526205543</v>
+        <v>01751253016560803651503030255514105101020252057303510134010511317529251018018081702030502512271550301020620510302010202020102241010220330151010311551011375202111715262055434</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L91"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1249,9 +1249,98 @@
         <v>34</v>
       </c>
     </row>
+    <row r="92">
+      <c r="C92" t="str">
+        <v>82_非洲菊绿 绿扣子_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F92" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="C93" t="str">
+        <v>548_白星花_tweedia white_undefined_1bunch</v>
+      </c>
+      <c r="F93" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>30</v>
+      </c>
+      <c r="C94" t="str">
+        <v>137_凯瑟琳_Catherine_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F94" t="str">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="C95" t="str">
+        <v>548_白星花_tweedia white_undefined_1bunch</v>
+      </c>
+      <c r="F95" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>31</v>
+      </c>
+      <c r="C96" t="str">
+        <v>154_莫泊_Moab_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F96" t="str">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>32</v>
+      </c>
+      <c r="C97" t="str">
+        <v>154_莫泊_Moab_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F97" t="str">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="C98" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F98" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="C99" t="str">
+        <v>209_海洋之歌_Ocean Song_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F99" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>33</v>
+      </c>
+      <c r="C100" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F100" t="str">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="C101" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L91"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L101"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1309,7 +1398,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01751253016560803651503030255514105101020252057303510134010511317529251018018081702030502512271550301020620510302010202020102241010220330151010311551011375202111715262055434</v>
+        <v>017512530165608036515030302555141051010202520573035101340105113175292510180180817020305025122715503010206205103020102020201022410102203301510103115510113752021117152620554345521152638207500</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:L111"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1337,10 +1337,106 @@
       <c r="C101" t="str">
         <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
       </c>
+      <c r="F101" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>34</v>
+      </c>
+      <c r="C102" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F102" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="C103" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F103" t="str">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>35</v>
+      </c>
+      <c r="C104" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F104" t="str">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>36</v>
+      </c>
+      <c r="C105" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F105" t="str">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="C106" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F106" t="str">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>37</v>
+      </c>
+      <c r="C107" t="str">
+        <v>209_海洋之歌_Ocean Song_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F107" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="C108" t="str">
+        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F108" t="str">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="C109" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F109" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>38</v>
+      </c>
+      <c r="C110" t="str">
+        <v>104_绣球重瓣紫_Hydrangea Purple D_Hydrangea L._1stem</v>
+      </c>
+      <c r="F110" t="str">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="111" xml:space="preserve">
+      <c r="C111" t="str" xml:space="preserve">
+        <v xml:space="preserve">508_风铃花白色_Canterbury Bells 
+white_undefined_1bunch</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L101"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L111"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1398,7 +1494,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>017512530165608036515030302555141051010202520573035101340105113175292510180180817020305025122715503010206205103020102020201022410102203301510103115510113752021117152620554345521152638207500</v>
+        <v>01751253016560803651503030255514105101020252057303510134010511317529251018018081702030502512271550301020620510302010202020102241010220330151010311551011375202111715262055434552115263820750201029373419122615500</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
@@ -1433,6 +1433,9 @@
         <v xml:space="preserve">508_风铃花白色_Canterbury Bells 
 white_undefined_1bunch</v>
       </c>
+      <c r="F111" t="str">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1494,7 +1497,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01751253016560803651503030255514105101020252057303510134010511317529251018018081702030502512271550301020620510302010202020102241010220330151010311551011375202111715262055434552115263820750201029373419122615500</v>
+        <v>017512530165608036515030302555141051010202520573035101340105113175292510180180817020305025122715503010206205103020102020201022410102203301510103115510113752021117152620554345521152638207502010293734191226155020</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L111"/>
+  <dimension ref="A1:L121"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1437,9 +1437,91 @@
         <v>20</v>
       </c>
     </row>
+    <row r="112" xml:space="preserve">
+      <c r="C112" t="str" xml:space="preserve">
+        <v xml:space="preserve">413_风铃花淡紫色_Canterbury Bells
+light purple_undefined_1bunch</v>
+      </c>
+      <c r="F112" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" xml:space="preserve">
+      <c r="C113" t="str" xml:space="preserve">
+        <v xml:space="preserve">414_风铃花粉色_Canterbury Bells
+pink_undefined_1bunch</v>
+      </c>
+      <c r="F113" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="C114" t="str">
+        <v>482_重瓣洋甘菊_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F114" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="C115" t="str">
+        <v>457_茴香花_lace flower yellow_undefined_1bunch</v>
+      </c>
+      <c r="F115" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="C116" t="str">
+        <v>456_蕾丝白色_lace flower white_undefined_1bunch</v>
+      </c>
+      <c r="F116" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="C117" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F117" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>39</v>
+      </c>
+      <c r="C118" t="str">
+        <v>387_洋甘菊_Chamomile_undefined_1bunch</v>
+      </c>
+      <c r="F118" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="C119" t="str">
+        <v>734_乒乓菊红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F119" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="C120" t="str">
+        <v>573_乒乓菊粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F120" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L111"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L121"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1497,7 +1579,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>017512530165608036515030302555141051010202520573035101340105113175292510180180817020305025122715503010206205103020102020201022410102203301510103115510113752021117152620554345521152638207502010293734191226155020</v>
+        <v>017512530165608036515030302555141051010202520573035101340105113175292510180180817020305025122715503010206205103020102020201022410102203301510103115510113752021117152620554345521152638207502010293734191226155020102020202001515100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
@@ -1516,7 +1516,7 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
@@ -1518,6 +1518,9 @@
       <c r="A121" t="str">
         <v>40</v>
       </c>
+      <c r="C121" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
@@ -1519,7 +1519,7 @@
         <v>40</v>
       </c>
       <c r="C121" t="str">
-        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+        <v>387_洋甘菊_Chamomile_undefined_1bunch</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
@@ -1521,6 +1521,9 @@
       <c r="C121" t="str">
         <v>387_洋甘菊_Chamomile_undefined_1bunch</v>
       </c>
+      <c r="F121" t="str">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1582,7 +1585,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>017512530165608036515030302555141051010202520573035101340105113175292510180180817020305025122715503010206205103020102020201022410102203301510103115510113752021117152620554345521152638207502010293734191226155020102020202001515100</v>
+        <v>0175125301656080365150303025551410510102025205730351013401051131752925101801808170203050251227155030102062051030201020202010224101022033015101031155101137520211171526205543455211526382075020102937341912261550201020202020015151015</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L121"/>
+  <dimension ref="A1:L131"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1525,9 +1525,95 @@
         <v>15</v>
       </c>
     </row>
+    <row r="122">
+      <c r="C122" t="str">
+        <v>572_乒乓菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F122" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="C123" t="str">
+        <v>421_松虫草黑色_scabiosa black_undefined_1bunch</v>
+      </c>
+      <c r="F123" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>41</v>
+      </c>
+      <c r="C124" t="str">
+        <v>197_粉红雪山_Sweet Avalanche_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F124" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="C125" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F125" t="str">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>42</v>
+      </c>
+      <c r="C126" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F126" t="str">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="C127" t="str">
+        <v>184_微光_shimmer_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F127" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>43</v>
+      </c>
+      <c r="C128" t="str">
+        <v>184_微光_shimmer_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F128" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="C129" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F129" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="C130" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F130" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L121"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L131"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1585,7 +1671,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0175125301656080365150303025551410510102025205730351013401051131752925101801808170203050251227155030102062051030201020202010224101022033015101031155101137520211171526205543455211526382075020102937341912261550201020202020015151015</v>
+        <v>01751253016560803651503030255514105101020252057303510134010511317529251018018081702030502512271550301020620510302010202020102241010220330151010311551011375202111715262055434552115263820750201029373419122615502010202020200151510151510201826151525150</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
@@ -1608,7 +1608,7 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
@@ -1610,6 +1610,9 @@
       <c r="A131" t="str">
         <v>44</v>
       </c>
+      <c r="C131" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L131"/>
+  <dimension ref="A1:L141"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1613,10 +1613,96 @@
       <c r="C131" t="str">
         <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F131" t="str">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="C132" t="str">
+        <v>506_紫罗兰香槟色_violet champagne_undefined_1bunch</v>
+      </c>
+      <c r="F132" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="C133" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F133" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>45</v>
+      </c>
+      <c r="C134" t="str">
+        <v>208_紫霞仙子 _Nightingale_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F134" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="C135" t="str">
+        <v>160_卡布奇诺_Cappuccino_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F135" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="C136" t="str">
+        <v>160_卡布奇诺_Cappuccino_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F136" t="str">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="C137" t="str">
+        <v>208_紫霞仙子 _Nightingale_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F137" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="C138" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F138" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>46</v>
+      </c>
+      <c r="C139" t="str">
+        <v>208_紫霞仙子 _Nightingale_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F139" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="C140" t="str">
+        <v>155_曼塔_Menta_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F140" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="C141" t="str">
+        <v>193_粉爱神_Pink Cupid_Rosa rugosa Thunb._20stems</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L131"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L141"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1674,7 +1760,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01751253016560803651503030255514105101020252057303510134010511317529251018018081702030502512271550301020620510302010202020102241010220330151010311551011375202111715262055434552115263820750201029373419122615502010202020200151510151510201826151525150</v>
+        <v>01751253016560803651503030255514105101020252057303510134010511317529251018018081702030502512271550301020620510302010202020102241010220330151010311551011375202111715262055434552115263820750201029373419122615502010202020200151510151510201826151525153151010147.56154200</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L141"/>
+  <dimension ref="A1:L151"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1699,10 +1699,96 @@
       <c r="C141" t="str">
         <v>193_粉爱神_Pink Cupid_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F141" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="C142" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F142" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="C143" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F143" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>47</v>
+      </c>
+      <c r="C144" t="str">
+        <v>193_粉爱神_Pink Cupid_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F144" t="str">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="C145" t="str">
+        <v>177_国王日_Kings Day_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F145" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="C146" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F146" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>48</v>
+      </c>
+      <c r="C147" t="str">
+        <v>177_国王日_Kings Day_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F147" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="C148" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F148" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="C149" t="str">
+        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F149" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="C150" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F150" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L141"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L151"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1760,7 +1846,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01751253016560803651503030255514105101020252057303510134010511317529251018018081702030502512271550301020620510302010202020102241010220330151010311551011375202111715262055434552115263820750201029373419122615502010202020200151510151510201826151525153151010147.56154200</v>
+        <v>01751253016560803651503030255514105101020252057303510134010511317529251018018081702030502512271550301020620510302010202020102241010220330151010311551011375202111715262055434552115263820750201029373419122615502010202020200151510151510201826151525153151010147.5615420111052951515208150</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
@@ -1785,6 +1785,9 @@
       <c r="A151" t="str">
         <v>49</v>
       </c>
+      <c r="C151" t="str">
+        <v>798_朱玉大菊_undefined_undefined_5stems</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
@@ -1788,6 +1788,9 @@
       <c r="C151" t="str">
         <v>798_朱玉大菊_undefined_undefined_5stems</v>
       </c>
+      <c r="F151" t="str">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1849,7 +1852,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01751253016560803651503030255514105101020252057303510134010511317529251018018081702030502512271550301020620510302010202020102241010220330151010311551011375202111715262055434552115263820750201029373419122615502010202020200151510151510201826151525153151010147.5615420111052951515208150</v>
+        <v>01751253016560803651503030255514105101020252057303510134010511317529251018018081702030502512271550301020620510302010202020102241010220330151010311551011375202111715262055434552115263820750201029373419122615502010202020200151510151510201826151525153151010147.56154201110529515152081530</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L151"/>
+  <dimension ref="A1:L161"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1484,7 +1484,7 @@
         <v>411_紫罗兰白_violet white_undefined_1bunch</v>
       </c>
       <c r="F117" t="str">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118">
@@ -1792,9 +1792,95 @@
         <v>30</v>
       </c>
     </row>
+    <row r="152">
+      <c r="C152" t="str">
+        <v>798_朱玉大菊_undefined_undefined_5stems</v>
+      </c>
+      <c r="F152" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>50</v>
+      </c>
+      <c r="C153" t="str">
+        <v>797_维也纳大菊_undefined_undefined_5stems</v>
+      </c>
+      <c r="F153" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>51</v>
+      </c>
+      <c r="C154" t="str">
+        <v>797_维也纳大菊_undefined_undefined_5stems</v>
+      </c>
+      <c r="F154" t="str">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="C155" t="str">
+        <v>421_松虫草黑色_scabiosa black_undefined_1bunch</v>
+      </c>
+      <c r="F155" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="C156" t="str">
+        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
+      </c>
+      <c r="F156" t="str">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>52</v>
+      </c>
+      <c r="C157" t="str">
+        <v>551_铁线莲_Glematis_undefined_1bunch</v>
+      </c>
+      <c r="F157" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="C158" t="str">
+        <v>551_铁线莲_Glematis_undefined_1bunch</v>
+      </c>
+      <c r="F158" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="C159" t="str">
+        <v>771_美洲茶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F159" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="C160" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F160" t="str">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L151"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L161"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1852,7 +1938,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01751253016560803651503030255514105101020252057303510134010511317529251018018081702030502512271550301020620510302010202020102241010220330151010311551011375202111715262055434552115263820750201029373419122615502010202020200151510151510201826151525153151010147.56154201110529515152081530</v>
+        <v>017512530165608036515030302555141051010202520573035101340105113175292510180180817020305025122715503010206205103020102020201022410102203301510103115510113752021117152620554345521152638207502010293734191226155020102020202015151510151510201826151525153151010147.561542011105295151520815303921735202020210</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
@@ -1875,7 +1875,7 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
@@ -1877,6 +1877,9 @@
       <c r="A161" t="str">
         <v>53</v>
       </c>
+      <c r="C161" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
@@ -1880,6 +1880,9 @@
       <c r="C161" t="str">
         <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
       </c>
+      <c r="F161" t="str">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1941,7 +1944,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>017512530165608036515030302555141051010202520573035101340105113175292510180180817020305025122715503010206205103020102020201022410102203301510103115510113752021117152620554345521152638207502010293734191226155020102020202015151510151510201826151525153151010147.561542011105295151520815303921735202020210</v>
+        <v>017512530165608036515030302555141051010202520573035101340105113175292510180180817020305025122715503010206205103020102020201022410102203301510103115510113752021117152620554345521152638207502010293734191226155020102020202015151510151510201826151525153151010147.5615420111052951515208153039217352020202118</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L161"/>
+  <dimension ref="A1:L171"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1884,9 +1884,92 @@
         <v>18</v>
       </c>
     </row>
+    <row r="162">
+      <c r="C162" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F162" t="str">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>54</v>
+      </c>
+      <c r="C163" t="str">
+        <v>514_松虫草紫_scabiosa purple_undefined_1bunch</v>
+      </c>
+      <c r="F163" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="C164" t="str">
+        <v>447_黄金球_craspedia_undefined_1bunch</v>
+      </c>
+      <c r="F164" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="C165" t="str">
+        <v>480_蝴蝶洋牡丹红_butterfly  Ranunculus_undefined_1bunch</v>
+      </c>
+      <c r="F165" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="C166" t="str">
+        <v>753_蝴蝶洋牡丹黄_butterfly  Ranunculus_undefined_1bunch</v>
+      </c>
+      <c r="F166" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>55</v>
+      </c>
+      <c r="C167" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F167" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="C168" t="str">
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
+      </c>
+      <c r="F168" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="C169" t="str">
+        <v>691_银莲紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F169" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="C170" t="str">
+        <v>719_银莲红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F170" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="C171" t="str">
+        <v>649_洋牡丹樱花粉_undefined_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L161"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L171"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1944,7 +2027,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>017512530165608036515030302555141051010202520573035101340105113175292510180180817020305025122715503010206205103020102020201022410102203301510103115510113752021117152620554345521152638207502010293734191226155020102020202015151510151510201826151525153151010147.5615420111052951515208153039217352020202118</v>
+        <v>017512530165608036515030302555141051010202520573035101340105113175292510180180817020305025122715503010206205103020102020201022410102203301510103115510113752021117152620554345521152638207502010293734191226155020102020202015151510151510201826151525153151010147.561542011105295151520815303921735202020211850302015152525980</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
@@ -1966,6 +1966,9 @@
       <c r="C171" t="str">
         <v>649_洋牡丹樱花粉_undefined_undefined_1bunch</v>
       </c>
+      <c r="F171" t="str">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -2027,7 +2030,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>017512530165608036515030302555141051010202520573035101340105113175292510180180817020305025122715503010206205103020102020201022410102203301510103115510113752021117152620554345521152638207502010293734191226155020102020202015151510151510201826151525153151010147.561542011105295151520815303921735202020211850302015152525980</v>
+        <v>017512530165608036515030302555141051010202520573035101340105113175292510180180817020305025122715503010206205103020102020201022410102203301510103115510113752021117152620554345521152638207502010293734191226155020102020202015151510151510201826151525153151010147.5615420111052951515208153039217352020202118503020151525259820</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L171"/>
+  <dimension ref="A1:L181"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1970,9 +1970,86 @@
         <v>20</v>
       </c>
     </row>
+    <row r="172">
+      <c r="C172" t="str">
+        <v>648_洋牡丹河内_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F172" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="C173" t="str">
+        <v>680_锦鲤黄_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F173" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="C174" t="str">
+        <v>683_锦鲤红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F174" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="C175" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F175" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="C176" t="str">
+        <v>590_洋牡丹粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F176" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="C177" t="str">
+        <v>585_洋牡丹红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F177" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="C178" t="str">
+        <v>589_洋牡丹香槟_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F178" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="C179" t="str">
+        <v>587_洋牡丹橙_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F179" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="C180" t="str">
+        <v>588_洋牡丹黄_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F180" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L171"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L181"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2030,7 +2107,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>017512530165608036515030302555141051010202520573035101340105113175292510180180817020305025122715503010206205103020102020201022410102203301510103115510113752021117152620554345521152638207502010293734191226155020102020202015151510151510201826151525153151010147.5615420111052951515208153039217352020202118503020151525259820</v>
+        <v>017512530165608036515030302555141051010202520573035101340105113175292510180180817020305025122715503010206205103020102020201022410102203301510103115510113752021117152620554345521152638207502010293734191226155020102020202015151510151510201826151525153151010147.5615420111052951515208153039217352020202118503020151525259820203072020151515150</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
@@ -2044,7 +2044,7 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>5</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
@@ -2046,6 +2046,9 @@
       <c r="A181" t="str">
         <v>56</v>
       </c>
+      <c r="C181" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
@@ -2049,6 +2049,9 @@
       <c r="C181" t="str">
         <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F181" t="str">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -2110,7 +2113,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>017512530165608036515030302555141051010202520573035101340105113175292510180180817020305025122715503010206205103020102020201022410102203301510103115510113752021117152620554345521152638207502010293734191226155020102020202015151510151510201826151525153151010147.5615420111052951515208153039217352020202118503020151525259820203072020151515150</v>
+        <v>017512530165608036515030302555141051010202520573035101340105113175292510180180817020305025122715503010206205103020102020201022410102203301510103115510113752021117152620554345521152638207502010293734191226155020102020202015151510151510201826151525153151010147.5615420111052951515208153039217352020202118503020151525259820203072020151515152</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-13.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L181"/>
+  <dimension ref="A1:L182"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2053,9 +2053,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="182">
+      <c r="C182" t="str">
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
+      </c>
+      <c r="F182" t="str">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L181"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L182"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2113,7 +2121,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>017512530165608036515030302555141051010202520573035101340105113175292510180180817020305025122715503010206205103020102020201022410102203301510103115510113752021117152620554345521152638207502010293734191226155020102020202015151510151510201826151525153151010147.5615420111052951515208153039217352020202118503020151525259820203072020151515152</v>
+        <v>017512530165608036515030302555141051010202520573035101340105113175292510180180817020305025122715503010206205103020102020201022410102203301510103115510113752021117152620554345521152638207502010293734191226155020102020202015151510151510201826151525153151010147.561542011105295151520815303921735202020211850302015152525982020307202015151515235</v>
       </c>
     </row>
   </sheetData>
